--- a/xlsx/哥伦布日_intext.xlsx
+++ b/xlsx/哥伦布日_intext.xlsx
@@ -29,7 +29,7 @@
     <t>美洲</t>
   </si>
   <si>
-    <t>政策_政策_美國_哥伦布日</t>
+    <t>政策_政策_美国_哥伦布日</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%8A%82%E6%97%A5</t>
@@ -131,13 +131,13 @@
     <t>https://zh.wikipedia.org/wiki/%E5%B0%8F%E7%BE%A9%E5%A4%A7%E5%88%A9</t>
   </si>
   <si>
-    <t>小義大利</t>
+    <t>小义大利</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%84%8F%E5%A4%A7%E5%88%A9%E8%AA%9E</t>
   </si>
   <si>
-    <t>意大利語</t>
+    <t>意大利语</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/1792%E5%B9%B4</t>
@@ -161,7 +161,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BF%92%E4%BF%97</t>
   </si>
   <si>
-    <t>習俗</t>
+    <t>习俗</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8C%97%E7%BE%8E%E6%B4%B2</t>
@@ -257,7 +257,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%94%BF%E6%B2%BB%E6%AD%A3%E7%A2%BA</t>
   </si>
   <si>
-    <t>政治正確</t>
+    <t>政治正确</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/Wayback_Machine</t>
@@ -269,7 +269,7 @@
     <t>https://zh.wikipedia.org/wiki/Template_talk:%E7%BE%8E%E5%9C%8B%E7%AF%80%E6%97%A5</t>
   </si>
   <si>
-    <t>Template talk-美國節日</t>
+    <t>Template talk-美国节日</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E8%8A%82%E6%97%A5</t>
@@ -335,7 +335,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%81%96%E7%81%B0%E6%98%9F%E6%9C%9F%E4%B8%89</t>
   </si>
   <si>
-    <t>聖灰星期三</t>
+    <t>圣灰星期三</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%8E%92%E7%81%AF%E8%8A%82</t>
@@ -359,7 +359,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%80%B6%E7%A9%8C%E5%8F%97%E9%9B%A3%E6%97%A5</t>
   </si>
   <si>
-    <t>耶穌受難日</t>
+    <t>耶稣受难日</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%85%89%E6%98%8E%E8%8A%82</t>
@@ -377,7 +377,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%87%BA%E6%82%94%E6%98%9F%E6%9C%9F%E4%BA%8C</t>
   </si>
   <si>
-    <t>懺悔星期二</t>
+    <t>忏悔星期二</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%A3%95%E6%9E%9D%E4%B8%BB%E6%97%A5</t>
